--- a/Templates/TemplateBubblesDetection.xlsx
+++ b/Templates/TemplateBubblesDetection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\MATLAB\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7F7A00-8E24-48A9-96E3-DFACA3154BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717654B0-EC17-4506-AC85-0B3277F3D924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11745" yWindow="2400" windowWidth="15000" windowHeight="11505" tabRatio="797" xr2:uid="{1662A4AC-789B-484B-8A0A-B0AEA92A4E1B}"/>
   </bookViews>
